--- a/Code/Results/Cases/Case_3_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.08500696328582</v>
+        <v>9.741583706518572</v>
       </c>
       <c r="C2">
-        <v>11.10644258887703</v>
+        <v>8.371277728407208</v>
       </c>
       <c r="D2">
-        <v>4.293778724669774</v>
+        <v>3.510785840105738</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.98331807227974</v>
+        <v>17.55709551358513</v>
       </c>
       <c r="G2">
-        <v>17.9518652244488</v>
+        <v>17.48625437641607</v>
       </c>
       <c r="H2">
-        <v>6.908746163386203</v>
+        <v>11.22903656869528</v>
       </c>
       <c r="I2">
-        <v>9.571076938581255</v>
+        <v>15.68704182894419</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.05118737261555</v>
+        <v>19.96626076887188</v>
       </c>
       <c r="N2">
-        <v>10.60110438619892</v>
+        <v>15.92661311942672</v>
       </c>
       <c r="O2">
-        <v>11.07401652114087</v>
+        <v>15.58854796573555</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.15860705112293</v>
+        <v>9.225687150525037</v>
       </c>
       <c r="C3">
-        <v>10.60847935705779</v>
+        <v>8.142480099828742</v>
       </c>
       <c r="D3">
-        <v>4.07650755604193</v>
+        <v>3.417341587081574</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.39486055029047</v>
+        <v>17.50238079788274</v>
       </c>
       <c r="G3">
-        <v>17.05568527370947</v>
+        <v>17.34255310698098</v>
       </c>
       <c r="H3">
-        <v>6.889355117471762</v>
+        <v>11.25890365256534</v>
       </c>
       <c r="I3">
-        <v>9.679828701944118</v>
+        <v>15.76500195294433</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.76137615715752</v>
+        <v>19.35638236821036</v>
       </c>
       <c r="N3">
-        <v>10.77723227916104</v>
+        <v>15.97917663091778</v>
       </c>
       <c r="O3">
-        <v>10.85422784631644</v>
+        <v>15.60998301096311</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.55735711967767</v>
+        <v>8.891830553975391</v>
       </c>
       <c r="C4">
-        <v>10.28843728401794</v>
+        <v>7.997621720431522</v>
       </c>
       <c r="D4">
-        <v>3.936348915450526</v>
+        <v>3.357954955879177</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.03589797072626</v>
+        <v>17.47438116032757</v>
       </c>
       <c r="G4">
-        <v>16.50373768751879</v>
+        <v>17.26155192603204</v>
       </c>
       <c r="H4">
-        <v>6.882543713675688</v>
+        <v>11.279265940445</v>
       </c>
       <c r="I4">
-        <v>9.75688670961857</v>
+        <v>15.81646491323354</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.30321265202234</v>
+        <v>18.9800296979327</v>
       </c>
       <c r="N4">
-        <v>10.88758193104367</v>
+        <v>16.01316683363613</v>
       </c>
       <c r="O4">
-        <v>10.72838200600905</v>
+        <v>15.62730892758882</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.30428228719441</v>
+        <v>8.751559694818999</v>
       </c>
       <c r="C5">
-        <v>10.15456022947855</v>
+        <v>7.937551454779205</v>
       </c>
       <c r="D5">
-        <v>3.877570110021495</v>
+        <v>3.333268822993516</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.89043064176412</v>
+        <v>17.46438749426902</v>
       </c>
       <c r="G5">
-        <v>16.27872959160655</v>
+        <v>17.23040048897764</v>
       </c>
       <c r="H5">
-        <v>6.881009210254003</v>
+        <v>11.28807212883149</v>
       </c>
       <c r="I5">
-        <v>9.790733999679716</v>
+        <v>15.83833880926653</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.69510133016719</v>
+        <v>18.82644902742003</v>
       </c>
       <c r="N5">
-        <v>10.93314860790019</v>
+        <v>16.02745102908344</v>
       </c>
       <c r="O5">
-        <v>10.67938791878683</v>
+        <v>15.63541435319821</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.2617757624571</v>
+        <v>8.728015419522132</v>
       </c>
       <c r="C6">
-        <v>10.13212553555081</v>
+        <v>7.927515937304348</v>
       </c>
       <c r="D6">
-        <v>3.867710642526267</v>
+        <v>3.329141002521772</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>13.86633179821301</v>
+        <v>17.46281383823455</v>
       </c>
       <c r="G6">
-        <v>16.24137292286671</v>
+        <v>17.22534102718456</v>
       </c>
       <c r="H6">
-        <v>6.880828188572575</v>
+        <v>11.28956507976662</v>
       </c>
       <c r="I6">
-        <v>9.796498076583758</v>
+        <v>15.84202540190952</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.59326480528223</v>
+        <v>18.8009420166901</v>
       </c>
       <c r="N6">
-        <v>10.94075222241566</v>
+        <v>16.02984909723813</v>
       </c>
       <c r="O6">
-        <v>10.67139058152161</v>
+        <v>15.63682329135251</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.55397656000479</v>
+        <v>8.889955791817137</v>
       </c>
       <c r="C7">
-        <v>10.28664557796986</v>
+        <v>7.996815715874078</v>
       </c>
       <c r="D7">
-        <v>3.935562886459632</v>
+        <v>3.357623968364376</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.03393255102274</v>
+        <v>17.47424063629123</v>
       </c>
       <c r="G7">
-        <v>16.50070300841919</v>
+        <v>17.26112423945605</v>
       </c>
       <c r="H7">
-        <v>6.882518046624675</v>
+        <v>11.27938264603512</v>
       </c>
       <c r="I7">
-        <v>9.75733346352907</v>
+        <v>15.81675626103888</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.29506867032306</v>
+        <v>18.9779589679748</v>
       </c>
       <c r="N7">
-        <v>10.88819398323916</v>
+        <v>16.01335772062422</v>
       </c>
       <c r="O7">
-        <v>10.72771199220885</v>
+        <v>15.62741401250559</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.7723682573606</v>
+        <v>9.567291728810677</v>
       </c>
       <c r="C8">
-        <v>10.93778787880454</v>
+        <v>8.293331621183773</v>
       </c>
       <c r="D8">
-        <v>4.220284509840878</v>
+        <v>3.478995367039199</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.7800564357473</v>
+        <v>17.53707477471432</v>
       </c>
       <c r="G8">
-        <v>17.64340121405034</v>
+        <v>17.43522976238365</v>
       </c>
       <c r="H8">
-        <v>6.900978963219686</v>
+        <v>11.23891441185313</v>
       </c>
       <c r="I8">
-        <v>9.60635293164926</v>
+        <v>15.71317528156395</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.27200160864142</v>
+        <v>19.75651757742983</v>
       </c>
       <c r="N8">
-        <v>10.66140341860437</v>
+        <v>15.94438171282279</v>
       </c>
       <c r="O8">
-        <v>10.99634538461766</v>
+        <v>15.59507314767917</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.90088247818093</v>
+        <v>10.75727954343059</v>
       </c>
       <c r="C9">
-        <v>12.09598743788556</v>
+        <v>8.837639506270888</v>
       </c>
       <c r="D9">
-        <v>4.723773261433383</v>
+        <v>3.700238607488843</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.25325291080038</v>
+        <v>17.70418603239189</v>
       </c>
       <c r="G9">
-        <v>19.85862901440057</v>
+        <v>17.83211526639604</v>
       </c>
       <c r="H9">
-        <v>6.979346371917954</v>
+        <v>11.17563558233223</v>
       </c>
       <c r="I9">
-        <v>9.398627596203935</v>
+        <v>15.53865576041831</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.73650752114984</v>
+        <v>21.25764281709821</v>
       </c>
       <c r="N9">
-        <v>10.23182962469826</v>
+        <v>15.82267151432452</v>
       </c>
       <c r="O9">
-        <v>11.59513212212227</v>
+        <v>15.56478068287443</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.30194319785291</v>
+        <v>11.54459911033798</v>
       </c>
       <c r="C10">
-        <v>12.8680783944818</v>
+        <v>9.211952857337781</v>
       </c>
       <c r="D10">
-        <v>5.058846202659916</v>
+        <v>3.851598391713686</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.33209731633747</v>
+        <v>17.8529195316437</v>
       </c>
       <c r="G10">
-        <v>21.4583580753926</v>
+        <v>18.15467291242426</v>
       </c>
       <c r="H10">
-        <v>7.064950965214099</v>
+        <v>11.13897469957832</v>
       </c>
       <c r="I10">
-        <v>9.309838118373484</v>
+        <v>15.42797914398383</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.59419018863728</v>
+        <v>22.33179238043865</v>
       </c>
       <c r="N10">
-        <v>9.921374510861458</v>
+        <v>15.74142306901773</v>
       </c>
       <c r="O10">
-        <v>12.07846865265126</v>
+        <v>15.56280514888808</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.90325317079996</v>
+        <v>11.88351659220155</v>
       </c>
       <c r="C11">
-        <v>13.20090022889474</v>
+        <v>9.376150451824564</v>
       </c>
       <c r="D11">
-        <v>5.203472106830878</v>
+        <v>3.917852257888853</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.82070306620946</v>
+        <v>17.92600988949764</v>
       </c>
       <c r="G11">
-        <v>22.17872604618272</v>
+        <v>18.30746327351255</v>
       </c>
       <c r="H11">
-        <v>7.110463402547766</v>
+        <v>11.12443633376326</v>
       </c>
       <c r="I11">
-        <v>9.285668912229967</v>
+        <v>15.38146231613817</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.33614344716388</v>
+        <v>22.81179960363785</v>
       </c>
       <c r="N11">
-        <v>9.780010082772522</v>
+        <v>15.70621660638424</v>
       </c>
       <c r="O11">
-        <v>12.30769497033937</v>
+        <v>15.56631775140987</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.12570331665355</v>
+        <v>12.0090676101217</v>
       </c>
       <c r="C12">
-        <v>13.32416975699248</v>
+        <v>9.437414948132004</v>
       </c>
       <c r="D12">
-        <v>5.257097255550899</v>
+        <v>3.942554210596748</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.00534082094218</v>
+        <v>17.95444810967084</v>
       </c>
       <c r="G12">
-        <v>22.45042481023867</v>
+        <v>18.36613217694134</v>
       </c>
       <c r="H12">
-        <v>7.128681517573035</v>
+        <v>11.11923894182841</v>
       </c>
       <c r="I12">
-        <v>9.279060445768348</v>
+        <v>15.364400517183</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.99628223241438</v>
+        <v>22.99214861276137</v>
       </c>
       <c r="N12">
-        <v>9.726317047469568</v>
+        <v>15.69313560726183</v>
       </c>
       <c r="O12">
-        <v>12.39584256243253</v>
+        <v>15.56828191141002</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.07802958004971</v>
+        <v>11.98215233155375</v>
       </c>
       <c r="C13">
-        <v>13.29774632754036</v>
+        <v>9.424261758174572</v>
       </c>
       <c r="D13">
-        <v>5.24559921522815</v>
+        <v>3.93725160581608</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.96559375203783</v>
+        <v>17.94828994913664</v>
       </c>
       <c r="G13">
-        <v>22.39195778752333</v>
+        <v>18.35346171253959</v>
       </c>
       <c r="H13">
-        <v>7.124713558665835</v>
+        <v>11.12034459013278</v>
       </c>
       <c r="I13">
-        <v>9.280367053087904</v>
+        <v>15.36805044408755</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.85404255469582</v>
+        <v>22.95337300185998</v>
       </c>
       <c r="N13">
-        <v>9.737890703607418</v>
+        <v>15.69594169476633</v>
       </c>
       <c r="O13">
-        <v>12.37679848381362</v>
+        <v>15.56783070753273</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.92166000180962</v>
+        <v>11.89390177153785</v>
       </c>
       <c r="C14">
-        <v>13.21109776977613</v>
+        <v>9.381209239326784</v>
       </c>
       <c r="D14">
-        <v>5.207906874553074</v>
+        <v>3.919892327233093</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.83590136613378</v>
+        <v>17.92833440027221</v>
       </c>
       <c r="G14">
-        <v>22.20110061731705</v>
+        <v>18.31227410831891</v>
       </c>
       <c r="H14">
-        <v>7.111942283814038</v>
+        <v>11.12400256684778</v>
       </c>
       <c r="I14">
-        <v>9.285072989761574</v>
+        <v>15.38004753318911</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.39042757953349</v>
+        <v>22.8266664286378</v>
       </c>
       <c r="N14">
-        <v>9.775596923522766</v>
+        <v>15.70513540310412</v>
       </c>
       <c r="O14">
-        <v>12.3149199405371</v>
+        <v>15.56646664128362</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.82519274191283</v>
+        <v>11.83948186820536</v>
       </c>
       <c r="C15">
-        <v>13.15765956180643</v>
+        <v>9.354718255040803</v>
       </c>
       <c r="D15">
-        <v>5.184669965008466</v>
+        <v>3.909208512336237</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.75640911383623</v>
+        <v>17.91620945512926</v>
       </c>
       <c r="G15">
-        <v>22.0840535556653</v>
+        <v>18.28714923847286</v>
       </c>
       <c r="H15">
-        <v>7.104248746929537</v>
+        <v>11.12628330138486</v>
       </c>
       <c r="I15">
-        <v>9.288293293405635</v>
+        <v>15.38746819706966</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.10659618751979</v>
+        <v>22.74886516815942</v>
       </c>
       <c r="N15">
-        <v>9.798667127759938</v>
+        <v>15.71079945490838</v>
       </c>
       <c r="O15">
-        <v>12.27719282570969</v>
+        <v>15.56571365954414</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.26191519549206</v>
+        <v>11.52206080868006</v>
       </c>
       <c r="C16">
-        <v>12.84594765476289</v>
+        <v>9.201096368549479</v>
       </c>
       <c r="D16">
-        <v>5.049235907545505</v>
+        <v>3.847215075662171</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.30011490133201</v>
+        <v>17.84825047323502</v>
       </c>
       <c r="G16">
-        <v>21.4111280634289</v>
+        <v>18.14480445827232</v>
       </c>
       <c r="H16">
-        <v>7.062112143448833</v>
+        <v>11.13996789118607</v>
       </c>
       <c r="I16">
-        <v>9.311761816656356</v>
+        <v>15.43109640283932</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.48027662494069</v>
+        <v>22.30023347462019</v>
       </c>
       <c r="N16">
-        <v>9.930599053093376</v>
+        <v>15.74375907670677</v>
       </c>
       <c r="O16">
-        <v>12.06367611223902</v>
+        <v>15.56266434333681</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.90708509932134</v>
+        <v>11.3223874105113</v>
       </c>
       <c r="C17">
-        <v>12.64992882682764</v>
+        <v>9.105267941178708</v>
       </c>
       <c r="D17">
-        <v>4.96413956811935</v>
+        <v>3.808508390918255</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.01957303173871</v>
+        <v>17.80793673650782</v>
       </c>
       <c r="G17">
-        <v>20.99638208074753</v>
+        <v>18.05898948717797</v>
       </c>
       <c r="H17">
-        <v>7.037973108053651</v>
+        <v>11.14891106183029</v>
       </c>
       <c r="I17">
-        <v>9.330460001397247</v>
+        <v>15.45884359940808</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.48075931451231</v>
+        <v>22.02266966164587</v>
       </c>
       <c r="N17">
-        <v>10.0114112589612</v>
+        <v>15.76442702909561</v>
       </c>
       <c r="O17">
-        <v>11.93508275891652</v>
+        <v>15.56192346734513</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.69960858501777</v>
+        <v>11.20573073138834</v>
       </c>
       <c r="C18">
-        <v>12.53545881167662</v>
+        <v>9.0495798280953</v>
       </c>
       <c r="D18">
-        <v>4.914461339116932</v>
+        <v>3.786001252068102</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.85801115588735</v>
+        <v>17.78526183600683</v>
       </c>
       <c r="G18">
-        <v>20.75713647581005</v>
+        <v>18.01020487981038</v>
       </c>
       <c r="H18">
-        <v>7.024705120765375</v>
+        <v>11.15425623506608</v>
       </c>
       <c r="I18">
-        <v>9.34272815698796</v>
+        <v>15.47516346044148</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.90447475829948</v>
+        <v>21.86221962219868</v>
       </c>
       <c r="N18">
-        <v>10.05788985998769</v>
+        <v>15.77647984620755</v>
       </c>
       <c r="O18">
-        <v>11.86199927635697</v>
+        <v>15.56191260031293</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.62878075302446</v>
+        <v>11.16592275466823</v>
       </c>
       <c r="C19">
-        <v>12.49640829915741</v>
+        <v>9.030628133819722</v>
       </c>
       <c r="D19">
-        <v>4.897515839696447</v>
+        <v>3.778339219226509</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.8032773607445</v>
+        <v>17.77767312291253</v>
       </c>
       <c r="G19">
-        <v>20.67601477770474</v>
+        <v>17.99378763095633</v>
       </c>
       <c r="H19">
-        <v>7.020317452624822</v>
+        <v>11.1561005787184</v>
       </c>
       <c r="I19">
-        <v>9.347135652715338</v>
+        <v>15.48075091609181</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.70905427387518</v>
+        <v>21.80776187104436</v>
       </c>
       <c r="N19">
-        <v>10.07362998161596</v>
+        <v>15.78058912810182</v>
       </c>
       <c r="O19">
-        <v>11.83740579234994</v>
+        <v>15.5619802438737</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.94520845041762</v>
+        <v>11.34383048179041</v>
       </c>
       <c r="C20">
-        <v>12.67097471923377</v>
+        <v>9.115528345634425</v>
       </c>
       <c r="D20">
-        <v>4.973274230477562</v>
+        <v>3.812654143111761</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.04945872452246</v>
+        <v>17.81217530452126</v>
       </c>
       <c r="G20">
-        <v>21.04060484064419</v>
+        <v>18.06806567426953</v>
       </c>
       <c r="H20">
-        <v>7.040478700444563</v>
+        <v>11.14793820935639</v>
       </c>
       <c r="I20">
-        <v>9.328311421659379</v>
+        <v>15.45585254570515</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.58728827333701</v>
+        <v>22.05230122763431</v>
       </c>
       <c r="N20">
-        <v>10.00280981339518</v>
+        <v>15.76220980641597</v>
       </c>
       <c r="O20">
-        <v>11.94868070116234</v>
+        <v>15.56195935707781</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.96773272259109</v>
+        <v>11.91989896735342</v>
       </c>
       <c r="C21">
-        <v>13.23662452387734</v>
+        <v>9.393879895566878</v>
       </c>
       <c r="D21">
-        <v>5.219009171565495</v>
+        <v>3.925001766921676</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.87400606262187</v>
+        <v>17.93417535986972</v>
       </c>
       <c r="G21">
-        <v>22.25718944482711</v>
+        <v>18.32435039973404</v>
       </c>
       <c r="H21">
-        <v>7.115666514377383</v>
+        <v>11.12291976917129</v>
       </c>
       <c r="I21">
-        <v>9.283619953125969</v>
+        <v>15.3765086675072</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.52656688791863</v>
+        <v>22.86392307352413</v>
       </c>
       <c r="N21">
-        <v>9.764527415366237</v>
+        <v>15.70242818822288</v>
       </c>
       <c r="O21">
-        <v>12.33305862431991</v>
+        <v>15.56685009898502</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.60534992581881</v>
+        <v>12.2801258223383</v>
       </c>
       <c r="C22">
-        <v>13.59013998802591</v>
+        <v>9.57045825551571</v>
       </c>
       <c r="D22">
-        <v>5.372947246651888</v>
+        <v>3.99616688345522</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.41063576174634</v>
+        <v>18.01833160845554</v>
       </c>
       <c r="G22">
-        <v>23.07857150680754</v>
+        <v>18.49654241010762</v>
       </c>
       <c r="H22">
-        <v>7.170557168384227</v>
+        <v>11.10836401772952</v>
       </c>
       <c r="I22">
-        <v>9.269346893601409</v>
+        <v>15.3278779180913</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.45209249155904</v>
+        <v>23.38602183484379</v>
       </c>
       <c r="N22">
-        <v>9.607755085193775</v>
+        <v>15.66481943846121</v>
       </c>
       <c r="O22">
-        <v>12.59211823909092</v>
+        <v>15.57374145541544</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.26787415636141</v>
+        <v>12.08936062305434</v>
       </c>
       <c r="C23">
-        <v>13.40298383357672</v>
+        <v>9.476715695902472</v>
       </c>
       <c r="D23">
-        <v>5.291404186822516</v>
+        <v>3.958395521156839</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.12444759688277</v>
+        <v>17.9730183538994</v>
       </c>
       <c r="G23">
-        <v>22.62807483352374</v>
+        <v>18.40423109152324</v>
       </c>
       <c r="H23">
-        <v>7.140721900390067</v>
+        <v>11.11596831042873</v>
       </c>
       <c r="I23">
-        <v>9.275524824031885</v>
+        <v>15.3535372045782</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.42302139797261</v>
+        <v>23.10818563354194</v>
       </c>
       <c r="N23">
-        <v>9.69158159411815</v>
+        <v>15.68475858276911</v>
       </c>
       <c r="O23">
-        <v>12.45313216557544</v>
+        <v>15.56972556884581</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.92798371758737</v>
+        <v>11.33414186647783</v>
       </c>
       <c r="C24">
-        <v>12.66146539511648</v>
+        <v>9.11089146727298</v>
       </c>
       <c r="D24">
-        <v>4.969146800454648</v>
+        <v>3.810780639165326</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.03594825197342</v>
+        <v>17.81025748276117</v>
       </c>
       <c r="G24">
-        <v>21.02061422757066</v>
+        <v>18.06396060752148</v>
       </c>
       <c r="H24">
-        <v>7.039344025454139</v>
+        <v>11.14837740174381</v>
       </c>
       <c r="I24">
-        <v>9.329278081157664</v>
+        <v>15.45720365617775</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.53913183501997</v>
+        <v>22.03890750804757</v>
       </c>
       <c r="N24">
-        <v>10.00669845895593</v>
+        <v>15.76321168151093</v>
       </c>
       <c r="O24">
-        <v>11.9425304344298</v>
+        <v>15.56194183845374</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.3533981482114</v>
+        <v>10.45047491780055</v>
       </c>
       <c r="C25">
-        <v>11.79606626230132</v>
+        <v>8.694688908328416</v>
       </c>
       <c r="D25">
-        <v>4.59359619983147</v>
+        <v>3.642287087360222</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>15.85473959852641</v>
+        <v>17.65435438221946</v>
       </c>
       <c r="G25">
-        <v>19.26356905823897</v>
+        <v>17.71908962591921</v>
       </c>
       <c r="H25">
-        <v>6.953388652560265</v>
+        <v>11.19102974785283</v>
       </c>
       <c r="I25">
-        <v>9.444375438471777</v>
+        <v>15.58279502136999</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.29175254742607</v>
+        <v>20.85571335814413</v>
       </c>
       <c r="N25">
-        <v>10.34678764027968</v>
+        <v>15.85415585079175</v>
       </c>
       <c r="O25">
-        <v>11.42548119098332</v>
+        <v>15.56941827339475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.741583706518572</v>
+        <v>16.08500696328584</v>
       </c>
       <c r="C2">
-        <v>8.371277728407208</v>
+        <v>11.10644258887711</v>
       </c>
       <c r="D2">
-        <v>3.510785840105738</v>
+        <v>4.293778724669774</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.55709551358513</v>
+        <v>14.98331807227971</v>
       </c>
       <c r="G2">
-        <v>17.48625437641607</v>
+        <v>17.95186522444878</v>
       </c>
       <c r="H2">
-        <v>11.22903656869528</v>
+        <v>6.908746163386203</v>
       </c>
       <c r="I2">
-        <v>15.68704182894419</v>
+        <v>9.571076938581243</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96626076887188</v>
+        <v>30.05118737261559</v>
       </c>
       <c r="N2">
-        <v>15.92661311942672</v>
+        <v>10.60110438619889</v>
       </c>
       <c r="O2">
-        <v>15.58854796573555</v>
+        <v>11.07401652114082</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.225687150525037</v>
+        <v>15.15860705112288</v>
       </c>
       <c r="C3">
-        <v>8.142480099828742</v>
+        <v>10.60847935705789</v>
       </c>
       <c r="D3">
-        <v>3.417341587081574</v>
+        <v>4.076507556041837</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.50238079788274</v>
+        <v>14.39486055029057</v>
       </c>
       <c r="G3">
-        <v>17.34255310698098</v>
+        <v>17.05568527370952</v>
       </c>
       <c r="H3">
-        <v>11.25890365256534</v>
+        <v>6.889355117471823</v>
       </c>
       <c r="I3">
-        <v>15.76500195294433</v>
+        <v>9.67982870194421</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.35638236821036</v>
+        <v>27.76137615715756</v>
       </c>
       <c r="N3">
-        <v>15.97917663091778</v>
+        <v>10.7772322791611</v>
       </c>
       <c r="O3">
-        <v>15.60998301096311</v>
+        <v>10.85422784631647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.891830553975391</v>
+        <v>14.55735711967771</v>
       </c>
       <c r="C4">
-        <v>7.997621720431522</v>
+        <v>10.28843728401801</v>
       </c>
       <c r="D4">
-        <v>3.357954955879177</v>
+        <v>3.936348915450635</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.47438116032757</v>
+        <v>14.03589797072618</v>
       </c>
       <c r="G4">
-        <v>17.26155192603204</v>
+        <v>16.50373768751878</v>
       </c>
       <c r="H4">
-        <v>11.279265940445</v>
+        <v>6.88254371367558</v>
       </c>
       <c r="I4">
-        <v>15.81646491323354</v>
+        <v>9.756886709618545</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.9800296979327</v>
+        <v>26.30321265202229</v>
       </c>
       <c r="N4">
-        <v>16.01316683363613</v>
+        <v>10.88758193104367</v>
       </c>
       <c r="O4">
-        <v>15.62730892758882</v>
+        <v>10.72838200600899</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.751559694818999</v>
+        <v>14.30428228719438</v>
       </c>
       <c r="C5">
-        <v>7.937551454779205</v>
+        <v>10.1545602294788</v>
       </c>
       <c r="D5">
-        <v>3.333268822993516</v>
+        <v>3.87757011002159</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.46438749426902</v>
+        <v>13.89043064176398</v>
       </c>
       <c r="G5">
-        <v>17.23040048897764</v>
+        <v>16.27872959160639</v>
       </c>
       <c r="H5">
-        <v>11.28807212883149</v>
+        <v>6.881009210253897</v>
       </c>
       <c r="I5">
-        <v>15.83833880926653</v>
+        <v>9.790733999679636</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.82644902742003</v>
+        <v>25.69510133016721</v>
       </c>
       <c r="N5">
-        <v>16.02745102908344</v>
+        <v>10.93314860790013</v>
       </c>
       <c r="O5">
-        <v>15.63541435319821</v>
+        <v>10.67938791878668</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.728015419522132</v>
+        <v>14.26177576245716</v>
       </c>
       <c r="C6">
-        <v>7.927515937304348</v>
+        <v>10.1321255355506</v>
       </c>
       <c r="D6">
-        <v>3.329141002521772</v>
+        <v>3.867710642526403</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.46281383823455</v>
+        <v>13.86633179821296</v>
       </c>
       <c r="G6">
-        <v>17.22534102718456</v>
+        <v>16.24137292286674</v>
       </c>
       <c r="H6">
-        <v>11.28956507976662</v>
+        <v>6.880828188572581</v>
       </c>
       <c r="I6">
-        <v>15.84202540190952</v>
+        <v>9.796498076583712</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.8009420166901</v>
+        <v>25.59326480528224</v>
       </c>
       <c r="N6">
-        <v>16.02984909723813</v>
+        <v>10.94075222241562</v>
       </c>
       <c r="O6">
-        <v>15.63682329135251</v>
+        <v>10.67139058152162</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.889955791817137</v>
+        <v>14.5539765600048</v>
       </c>
       <c r="C7">
-        <v>7.996815715874078</v>
+        <v>10.28664557796986</v>
       </c>
       <c r="D7">
-        <v>3.357623968364376</v>
+        <v>3.935562886459719</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.47424063629123</v>
+        <v>14.03393255102272</v>
       </c>
       <c r="G7">
-        <v>17.26112423945605</v>
+        <v>16.50070300841918</v>
       </c>
       <c r="H7">
-        <v>11.27938264603512</v>
+        <v>6.882518046624685</v>
       </c>
       <c r="I7">
-        <v>15.81675626103888</v>
+        <v>9.757333463529068</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.9779589679748</v>
+        <v>26.29506867032304</v>
       </c>
       <c r="N7">
-        <v>16.01335772062422</v>
+        <v>10.88819398323916</v>
       </c>
       <c r="O7">
-        <v>15.62741401250559</v>
+        <v>10.72771199220885</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.567291728810677</v>
+        <v>15.77236825736056</v>
       </c>
       <c r="C8">
-        <v>8.293331621183773</v>
+        <v>10.93778787880472</v>
       </c>
       <c r="D8">
-        <v>3.478995367039199</v>
+        <v>4.220284509840942</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.53707477471432</v>
+        <v>14.7800564357473</v>
       </c>
       <c r="G8">
-        <v>17.43522976238365</v>
+        <v>17.64340121405037</v>
       </c>
       <c r="H8">
-        <v>11.23891441185313</v>
+        <v>6.900978963219696</v>
       </c>
       <c r="I8">
-        <v>15.71317528156395</v>
+        <v>9.606352931649322</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75651757742983</v>
+        <v>29.27200160864139</v>
       </c>
       <c r="N8">
-        <v>15.94438171282279</v>
+        <v>10.66140341860436</v>
       </c>
       <c r="O8">
-        <v>15.59507314767917</v>
+        <v>10.99634538461768</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.75727954343059</v>
+        <v>17.90088247818094</v>
       </c>
       <c r="C9">
-        <v>8.837639506270888</v>
+        <v>12.09598743788549</v>
       </c>
       <c r="D9">
-        <v>3.700238607488843</v>
+        <v>4.723773261433505</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.70418603239189</v>
+        <v>16.25325291080031</v>
       </c>
       <c r="G9">
-        <v>17.83211526639604</v>
+        <v>19.85862901440058</v>
       </c>
       <c r="H9">
-        <v>11.17563558233223</v>
+        <v>6.979346371917935</v>
       </c>
       <c r="I9">
-        <v>15.53865576041831</v>
+        <v>9.398627596203907</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25764281709821</v>
+        <v>34.73650752114992</v>
       </c>
       <c r="N9">
-        <v>15.82267151432452</v>
+        <v>10.23182962469822</v>
       </c>
       <c r="O9">
-        <v>15.56478068287443</v>
+        <v>11.59513212212226</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.54459911033798</v>
+        <v>19.30194319785301</v>
       </c>
       <c r="C10">
-        <v>9.211952857337781</v>
+        <v>12.86807839448174</v>
       </c>
       <c r="D10">
-        <v>3.851598391713686</v>
+        <v>5.058846202659895</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.8529195316437</v>
+        <v>17.33209731633746</v>
       </c>
       <c r="G10">
-        <v>18.15467291242426</v>
+        <v>21.45835807539264</v>
       </c>
       <c r="H10">
-        <v>11.13897469957832</v>
+        <v>7.064950965214105</v>
       </c>
       <c r="I10">
-        <v>15.42797914398383</v>
+        <v>9.30983811837346</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.33179238043865</v>
+        <v>38.59419018863729</v>
       </c>
       <c r="N10">
-        <v>15.74142306901773</v>
+        <v>9.921374510861488</v>
       </c>
       <c r="O10">
-        <v>15.56280514888808</v>
+        <v>12.07846865265125</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.88351659220155</v>
+        <v>19.9032531708</v>
       </c>
       <c r="C11">
-        <v>9.376150451824564</v>
+        <v>13.20090022889487</v>
       </c>
       <c r="D11">
-        <v>3.917852257888853</v>
+        <v>5.203472106830886</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.92600988949764</v>
+        <v>17.82070306620946</v>
       </c>
       <c r="G11">
-        <v>18.30746327351255</v>
+        <v>22.1787260461828</v>
       </c>
       <c r="H11">
-        <v>11.12443633376326</v>
+        <v>7.110463402547766</v>
       </c>
       <c r="I11">
-        <v>15.38146231613817</v>
+        <v>9.285668912229992</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.81179960363785</v>
+        <v>40.33614344716383</v>
       </c>
       <c r="N11">
-        <v>15.70621660638424</v>
+        <v>9.780010082772517</v>
       </c>
       <c r="O11">
-        <v>15.56631775140987</v>
+        <v>12.30769497033935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.0090676101217</v>
+        <v>20.12570331665351</v>
       </c>
       <c r="C12">
-        <v>9.437414948132004</v>
+        <v>13.32416975699246</v>
       </c>
       <c r="D12">
-        <v>3.942554210596748</v>
+        <v>5.257097255550941</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.95444810967084</v>
+        <v>18.0053408209422</v>
       </c>
       <c r="G12">
-        <v>18.36613217694134</v>
+        <v>22.45042481023868</v>
       </c>
       <c r="H12">
-        <v>11.11923894182841</v>
+        <v>7.128681517573035</v>
       </c>
       <c r="I12">
-        <v>15.364400517183</v>
+        <v>9.279060445768401</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.99214861276137</v>
+        <v>40.99628223241444</v>
       </c>
       <c r="N12">
-        <v>15.69313560726183</v>
+        <v>9.726317047469564</v>
       </c>
       <c r="O12">
-        <v>15.56828191141002</v>
+        <v>12.39584256243257</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.98215233155375</v>
+        <v>20.07802958004974</v>
       </c>
       <c r="C13">
-        <v>9.424261758174572</v>
+        <v>13.29774632754041</v>
       </c>
       <c r="D13">
-        <v>3.93725160581608</v>
+        <v>5.245599215228134</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.94828994913664</v>
+        <v>17.96559375203782</v>
       </c>
       <c r="G13">
-        <v>18.35346171253959</v>
+        <v>22.39195778752335</v>
       </c>
       <c r="H13">
-        <v>11.12034459013278</v>
+        <v>7.124713558665801</v>
       </c>
       <c r="I13">
-        <v>15.36805044408755</v>
+        <v>9.280367053087899</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.95337300185998</v>
+        <v>40.85404255469575</v>
       </c>
       <c r="N13">
-        <v>15.69594169476633</v>
+        <v>9.737890703607386</v>
       </c>
       <c r="O13">
-        <v>15.56783070753273</v>
+        <v>12.37679848381361</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.89390177153785</v>
+        <v>19.92166000180963</v>
       </c>
       <c r="C14">
-        <v>9.381209239326784</v>
+        <v>13.21109776977608</v>
       </c>
       <c r="D14">
-        <v>3.919892327233093</v>
+        <v>5.207906874553032</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.92833440027221</v>
+        <v>17.83590136613378</v>
       </c>
       <c r="G14">
-        <v>18.31227410831891</v>
+        <v>22.20110061731709</v>
       </c>
       <c r="H14">
-        <v>11.12400256684778</v>
+        <v>7.111942283814043</v>
       </c>
       <c r="I14">
-        <v>15.38004753318911</v>
+        <v>9.285072989761595</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.8266664286378</v>
+        <v>40.3904275795335</v>
       </c>
       <c r="N14">
-        <v>15.70513540310412</v>
+        <v>9.775596923522759</v>
       </c>
       <c r="O14">
-        <v>15.56646664128362</v>
+        <v>12.31491994053712</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.83948186820536</v>
+        <v>19.8251927419128</v>
       </c>
       <c r="C15">
-        <v>9.354718255040803</v>
+        <v>13.15765956180634</v>
       </c>
       <c r="D15">
-        <v>3.909208512336237</v>
+        <v>5.184669965008528</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.91620945512926</v>
+        <v>17.75640911383626</v>
       </c>
       <c r="G15">
-        <v>18.28714923847286</v>
+        <v>22.08405355566534</v>
       </c>
       <c r="H15">
-        <v>11.12628330138486</v>
+        <v>7.104248746929582</v>
       </c>
       <c r="I15">
-        <v>15.38746819706966</v>
+        <v>9.288293293405712</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.74886516815942</v>
+        <v>40.10659618751993</v>
       </c>
       <c r="N15">
-        <v>15.71079945490838</v>
+        <v>9.798667127760027</v>
       </c>
       <c r="O15">
-        <v>15.56571365954414</v>
+        <v>12.27719282570974</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.52206080868006</v>
+        <v>19.26191519549207</v>
       </c>
       <c r="C16">
-        <v>9.201096368549479</v>
+        <v>12.8459476547628</v>
       </c>
       <c r="D16">
-        <v>3.847215075662171</v>
+        <v>5.049235907545559</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.84825047323502</v>
+        <v>17.30011490133203</v>
       </c>
       <c r="G16">
-        <v>18.14480445827232</v>
+        <v>21.41112806342887</v>
       </c>
       <c r="H16">
-        <v>11.13996789118607</v>
+        <v>7.062112143448853</v>
       </c>
       <c r="I16">
-        <v>15.43109640283932</v>
+        <v>9.311761816656372</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.30023347462019</v>
+        <v>38.48027662494074</v>
       </c>
       <c r="N16">
-        <v>15.74375907670677</v>
+        <v>9.930599053093372</v>
       </c>
       <c r="O16">
-        <v>15.56266434333681</v>
+        <v>12.06367611223906</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.3223874105113</v>
+        <v>18.90708509932136</v>
       </c>
       <c r="C17">
-        <v>9.105267941178708</v>
+        <v>12.64992882682761</v>
       </c>
       <c r="D17">
-        <v>3.808508390918255</v>
+        <v>4.964139568119371</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.80793673650782</v>
+        <v>17.01957303173874</v>
       </c>
       <c r="G17">
-        <v>18.05898948717797</v>
+        <v>20.99638208074758</v>
       </c>
       <c r="H17">
-        <v>11.14891106183029</v>
+        <v>7.037973108053697</v>
       </c>
       <c r="I17">
-        <v>15.45884359940808</v>
+        <v>9.330460001397286</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.02266966164587</v>
+        <v>37.48075931451228</v>
       </c>
       <c r="N17">
-        <v>15.76442702909561</v>
+        <v>10.01141125896123</v>
       </c>
       <c r="O17">
-        <v>15.56192346734513</v>
+        <v>11.93508275891658</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.20573073138834</v>
+        <v>18.69960858501777</v>
       </c>
       <c r="C18">
-        <v>9.0495798280953</v>
+        <v>12.53545881167677</v>
       </c>
       <c r="D18">
-        <v>3.786001252068102</v>
+        <v>4.914461339116833</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.78526183600683</v>
+        <v>16.85801115588733</v>
       </c>
       <c r="G18">
-        <v>18.01020487981038</v>
+        <v>20.75713647581003</v>
       </c>
       <c r="H18">
-        <v>11.15425623506608</v>
+        <v>7.024705120765296</v>
       </c>
       <c r="I18">
-        <v>15.47516346044148</v>
+        <v>9.342728156987947</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.86221962219868</v>
+        <v>36.90447475829941</v>
       </c>
       <c r="N18">
-        <v>15.77647984620755</v>
+        <v>10.05788985998766</v>
       </c>
       <c r="O18">
-        <v>15.56191260031293</v>
+        <v>11.86199927635692</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.16592275466823</v>
+        <v>18.62878075302443</v>
       </c>
       <c r="C19">
-        <v>9.030628133819722</v>
+        <v>12.4964082991574</v>
       </c>
       <c r="D19">
-        <v>3.778339219226509</v>
+        <v>4.897515839696447</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.77767312291253</v>
+        <v>16.80327736074451</v>
       </c>
       <c r="G19">
-        <v>17.99378763095633</v>
+        <v>20.67601477770468</v>
       </c>
       <c r="H19">
-        <v>11.1561005787184</v>
+        <v>7.020317452624815</v>
       </c>
       <c r="I19">
-        <v>15.48075091609181</v>
+        <v>9.34713565271535</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.80776187104436</v>
+        <v>36.70905427387526</v>
       </c>
       <c r="N19">
-        <v>15.78058912810182</v>
+        <v>10.07362998161596</v>
       </c>
       <c r="O19">
-        <v>15.5619802438737</v>
+        <v>11.83740579234996</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.34383048179041</v>
+        <v>18.94520845041757</v>
       </c>
       <c r="C20">
-        <v>9.115528345634425</v>
+        <v>12.67097471923361</v>
       </c>
       <c r="D20">
-        <v>3.812654143111761</v>
+        <v>4.973274230477584</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.81217530452126</v>
+        <v>17.04945872452244</v>
       </c>
       <c r="G20">
-        <v>18.06806567426953</v>
+        <v>21.04060484064419</v>
       </c>
       <c r="H20">
-        <v>11.14793820935639</v>
+        <v>7.040478700444671</v>
       </c>
       <c r="I20">
-        <v>15.45585254570515</v>
+        <v>9.328311421659418</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.05230122763431</v>
+        <v>37.58728827333698</v>
       </c>
       <c r="N20">
-        <v>15.76220980641597</v>
+        <v>10.00280981339519</v>
       </c>
       <c r="O20">
-        <v>15.56195935707781</v>
+        <v>11.94868070116238</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.91989896735342</v>
+        <v>19.96773272259097</v>
       </c>
       <c r="C21">
-        <v>9.393879895566878</v>
+        <v>13.23662452387739</v>
       </c>
       <c r="D21">
-        <v>3.925001766921676</v>
+        <v>5.21900917156546</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.93417535986972</v>
+        <v>17.87400606262191</v>
       </c>
       <c r="G21">
-        <v>18.32435039973404</v>
+        <v>22.25718944482712</v>
       </c>
       <c r="H21">
-        <v>11.12291976917129</v>
+        <v>7.115666514377425</v>
       </c>
       <c r="I21">
-        <v>15.3765086675072</v>
+        <v>9.283619953126063</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.86392307352413</v>
+        <v>40.52656688791872</v>
       </c>
       <c r="N21">
-        <v>15.70242818822288</v>
+        <v>9.764527415366262</v>
       </c>
       <c r="O21">
-        <v>15.56685009898502</v>
+        <v>12.33305862431996</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.2801258223383</v>
+        <v>20.60534992581878</v>
       </c>
       <c r="C22">
-        <v>9.57045825551571</v>
+        <v>13.59013998802591</v>
       </c>
       <c r="D22">
-        <v>3.99616688345522</v>
+        <v>5.372947246651854</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.01833160845554</v>
+        <v>18.41063576174635</v>
       </c>
       <c r="G22">
-        <v>18.49654241010762</v>
+        <v>23.07857150680755</v>
       </c>
       <c r="H22">
-        <v>11.10836401772952</v>
+        <v>7.170557168384234</v>
       </c>
       <c r="I22">
-        <v>15.3278779180913</v>
+        <v>9.269346893601446</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.38602183484379</v>
+        <v>42.45209249155893</v>
       </c>
       <c r="N22">
-        <v>15.66481943846121</v>
+        <v>9.607755085193801</v>
       </c>
       <c r="O22">
-        <v>15.57374145541544</v>
+        <v>12.59211823909095</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.08936062305434</v>
+        <v>20.26787415636139</v>
       </c>
       <c r="C23">
-        <v>9.476715695902472</v>
+        <v>13.40298383357677</v>
       </c>
       <c r="D23">
-        <v>3.958395521156839</v>
+        <v>5.291404186822549</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.9730183538994</v>
+        <v>18.12444759688277</v>
       </c>
       <c r="G23">
-        <v>18.40423109152324</v>
+        <v>22.62807483352379</v>
       </c>
       <c r="H23">
-        <v>11.11596831042873</v>
+        <v>7.140721900390074</v>
       </c>
       <c r="I23">
-        <v>15.3535372045782</v>
+        <v>9.27552482403186</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.10818563354194</v>
+        <v>41.42302139797258</v>
       </c>
       <c r="N23">
-        <v>15.68475858276911</v>
+        <v>9.691581594118112</v>
       </c>
       <c r="O23">
-        <v>15.56972556884581</v>
+        <v>12.45313216557541</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.33414186647783</v>
+        <v>18.92798371758736</v>
       </c>
       <c r="C24">
-        <v>9.11089146727298</v>
+        <v>12.6614653951166</v>
       </c>
       <c r="D24">
-        <v>3.810780639165326</v>
+        <v>4.969146800454772</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.81025748276117</v>
+        <v>17.03594825197344</v>
       </c>
       <c r="G24">
-        <v>18.06396060752148</v>
+        <v>21.02061422757069</v>
       </c>
       <c r="H24">
-        <v>11.14837740174381</v>
+        <v>7.039344025454139</v>
       </c>
       <c r="I24">
-        <v>15.45720365617775</v>
+        <v>9.32927808115774</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.03890750804757</v>
+        <v>37.53913183501991</v>
       </c>
       <c r="N24">
-        <v>15.76321168151093</v>
+        <v>10.00669845895596</v>
       </c>
       <c r="O24">
-        <v>15.56194183845374</v>
+        <v>11.94253043442983</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.45047491780055</v>
+        <v>17.35339814821133</v>
       </c>
       <c r="C25">
-        <v>8.694688908328416</v>
+        <v>11.79606626230123</v>
       </c>
       <c r="D25">
-        <v>3.642287087360222</v>
+        <v>4.593596199831515</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.65435438221946</v>
+        <v>15.8547395985265</v>
       </c>
       <c r="G25">
-        <v>17.71908962591921</v>
+        <v>19.26356905823899</v>
       </c>
       <c r="H25">
-        <v>11.19102974785283</v>
+        <v>6.953388652560362</v>
       </c>
       <c r="I25">
-        <v>15.58279502136999</v>
+        <v>9.444375438471933</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85571335814413</v>
+        <v>33.29175254742596</v>
       </c>
       <c r="N25">
-        <v>15.85415585079175</v>
+        <v>10.34678764027978</v>
       </c>
       <c r="O25">
-        <v>15.56941827339475</v>
+        <v>11.42548119098345</v>
       </c>
     </row>
   </sheetData>
